--- a/data/trans_bre/P37-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.781697577108692</v>
+        <v>-0.4334988663674277</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.688382282466184</v>
+        <v>-5.74895489983898</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.381495513259867</v>
+        <v>-2.92243477080798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.57403566920478</v>
+        <v>7.354536590984921</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.02585319138104962</v>
+        <v>-0.01498389602353837</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1509646143968708</v>
+        <v>-0.1527732087834127</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.09179634941208571</v>
+        <v>-0.0804574959168087</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1341298324409806</v>
+        <v>0.1339620003529207</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.502449240310834</v>
+        <v>6.497296642652742</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.8561424639999</v>
+        <v>2.542260163712424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.238719723574466</v>
+        <v>6.468237862006021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.99602288339229</v>
+        <v>17.45429147074911</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2629965442319958</v>
+        <v>0.2627633627060166</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08512318372749982</v>
+        <v>0.07591198583730599</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1988276831654773</v>
+        <v>0.2078049046648287</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3448827687069545</v>
+        <v>0.3647724356211841</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.2506733146100629</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.02267499787038</v>
+        <v>2.022674997870369</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.09062210584872564</v>
@@ -749,7 +749,7 @@
         <v>-0.02402157605050665</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.08156393406062684</v>
+        <v>0.08156393406062638</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.443695339807914</v>
+        <v>-2.381477264160626</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.834402532605959</v>
+        <v>-3.857567942447929</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.274520777050905</v>
+        <v>-2.143952924094241</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.471518477466122</v>
+        <v>-0.621840132184642</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3078632191381878</v>
+        <v>-0.3153745280359419</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3265345922757963</v>
+        <v>-0.3311768524427825</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.202911698504703</v>
+        <v>-0.1894122593829696</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01802389496188452</v>
+        <v>-0.02375057659883895</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.165143371541193</v>
+        <v>1.176095677778568</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3168744042051505</v>
+        <v>0.2788533307624572</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.614354121980165</v>
+        <v>1.903734172565082</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.508389036514232</v>
+        <v>4.68650817234272</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1916455518244932</v>
+        <v>0.1864797993590815</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03247131377823523</v>
+        <v>0.0277667119780381</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1747248400857178</v>
+        <v>0.1944276378316754</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1911339299035591</v>
+        <v>0.2006800213450811</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.5512335321505955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.859079861186752</v>
+        <v>-1.859079861186741</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1740059640227394</v>
@@ -849,7 +849,7 @@
         <v>-0.05123072743585137</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.05655830373410846</v>
+        <v>-0.05655830373410814</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.708417966595578</v>
+        <v>-5.953811247212551</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.3884005831989</v>
+        <v>-6.513982981996666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.473486621070457</v>
+        <v>-4.240948288258044</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.935209756801197</v>
+        <v>-6.815204397352943</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.419147865525036</v>
+        <v>-0.4367856218713791</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.466577667825689</v>
+        <v>-0.4776665544035205</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.351064405607837</v>
+        <v>-0.3510800097663612</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1881114843238561</v>
+        <v>-0.1930067139203163</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.935060664091405</v>
+        <v>1.777872433814488</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.976464255034083</v>
+        <v>2.085366076085073</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.57918652667046</v>
+        <v>3.367083593704375</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.782531548856851</v>
+        <v>2.446734797577454</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2332410148552934</v>
+        <v>0.2152633155941824</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2265449478270633</v>
+        <v>0.2334865770701185</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4084983571724282</v>
+        <v>0.3986692253137356</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.09485893262970713</v>
+        <v>0.0811016854407304</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3711407881959419</v>
+        <v>0.3007184654910354</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.313771193184772</v>
+        <v>-1.26464512030447</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.276699253352011</v>
+        <v>-0.3214125508812199</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.867044267747727</v>
+        <v>3.005440959299343</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02602726350281433</v>
+        <v>0.0206992425209637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07056083222230335</v>
+        <v>-0.06878597654741107</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01742512428995328</v>
+        <v>-0.01934751541105353</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09034044315290168</v>
+        <v>0.09404736775540987</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.968739008010021</v>
+        <v>3.783272255908646</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.506332793716212</v>
+        <v>2.491576800698319</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.514694423742044</v>
+        <v>3.397822665070756</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.014848270808098</v>
+        <v>7.192057572557481</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3035113030653304</v>
+        <v>0.2898399819219594</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.149709617771568</v>
+        <v>0.1473741896921775</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2342108892386587</v>
+        <v>0.2278517729544985</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2366513936467564</v>
+        <v>0.2445144732689045</v>
       </c>
     </row>
     <row r="16">
